--- a/biology/Histoire de la zoologie et de la botanique/Muséum_de_Toulouse/Muséum_de_Toulouse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Muséum_de_Toulouse/Muséum_de_Toulouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
+          <t>Muséum_de_Toulouse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muséum de Toulouse est un musée d'histoire naturelle et d'ethnologie situé dans le Jardin des Plantes de Toulouse, quartier de Busca-Montplaisir. Le Muséum d'histoire naturelle de Toulouse (abréviation officielle : MHNT) abrite une collection de plus de deux millions et demi de pièces sur une superficie d'environ 6 000 m2, sans compter les annexes extérieures[2]. Il est le deuxième plus grand de France après le Muséum national d'histoire naturelle (MNHN) de Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muséum de Toulouse est un musée d'histoire naturelle et d'ethnologie situé dans le Jardin des Plantes de Toulouse, quartier de Busca-Montplaisir. Le Muséum d'histoire naturelle de Toulouse (abréviation officielle : MHNT) abrite une collection de plus de deux millions et demi de pièces sur une superficie d'environ 6 000 m2, sans compter les annexes extérieures. Il est le deuxième plus grand de France après le Muséum national d'histoire naturelle (MNHN) de Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
+          <t>Muséum_de_Toulouse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Occupation du site avant la construction du muséum
-Durant les travaux de rénovation du début du XXIe siècle, des fouilles d'archéologie préventives sont réalisées[3]. Elles mettent en évidence une présence gauloise sur le site marquée par des fossés parcellaires, une fosse et une sablière, suivie par une occupation lors du Haut-Empire romain, mise en évidence par une fondation maçonnée d'un bâtiment ainsi que de la présence de mobilier antique dispersé[3].
-La découverte principale lors de ces fouilles est celle d'une occupation lors du bas Moyen Âge : une série de constructions, en murs de terre crue, élévations et panneaux de torchis parfois enduits et peints, ainsi que des matériaux incendiés (gonds, serrures, clés) et de nombreuses fosses (puisards, puits, dépotoirs)[3].
-Histoire du muséum
-En 1796, le naturaliste Philippe-Isidore Picot de Lapeyrouse, obtient du département de la Haute-Garonne les anciens locaux du monastère des Carmes Déchaussés, y installant le jardin botanique et les collections de sciences naturelles de l'Académie des Sciences, Inscriptions et Belles-Lettres. Le lieu est réservé alors à l'usage exclusif des naturalistes qui y professent des cours de botanique.
+          <t>Occupation du site avant la construction du muséum</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant les travaux de rénovation du début du XXIe siècle, des fouilles d'archéologie préventives sont réalisées. Elles mettent en évidence une présence gauloise sur le site marquée par des fossés parcellaires, une fosse et une sablière, suivie par une occupation lors du Haut-Empire romain, mise en évidence par une fondation maçonnée d'un bâtiment ainsi que de la présence de mobilier antique dispersé.
+La découverte principale lors de ces fouilles est celle d'une occupation lors du bas Moyen Âge : une série de constructions, en murs de terre crue, élévations et panneaux de torchis parfois enduits et peints, ainsi que des matériaux incendiés (gonds, serrures, clés) et de nombreuses fosses (puisards, puits, dépotoirs).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Histoire du muséum</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1796, le naturaliste Philippe-Isidore Picot de Lapeyrouse, obtient du département de la Haute-Garonne les anciens locaux du monastère des Carmes Déchaussés, y installant le jardin botanique et les collections de sciences naturelles de l'Académie des Sciences, Inscriptions et Belles-Lettres. Le lieu est réservé alors à l'usage exclusif des naturalistes qui y professent des cours de botanique.
 Le Muséum est créé en 1865 par décision du conseil municipal avec pour mission l’accueil du public, la diffusion des sciences naturelles. Édouard Filhol sera son créateur et donc son premier directeur.
 En 1887, à l’occasion de l’Exposition internationale de Toulouse, le jardin botanique est dissocié du Jardin des Plantes et va se transformer jusqu'à la topographie qu'on lui connait maintenant. Il regroupe plusieurs centaines d'espèces de plantes dont de nombreux arbres. Ce jardin, géré par l'université Toulouse 3 - Paul Sabatier, fait partie intégrante du muséum.
-Le muséum de Toulouse est le premier musée au monde à ouvrir une galerie de préhistoire : la « galerie des cavernes », grâce à la collaboration d'Émile Cartailhac, Jean-Baptiste Noulet et Eugène Trutat[4].
+Le muséum de Toulouse est le premier musée au monde à ouvrir une galerie de préhistoire : la « galerie des cavernes », grâce à la collaboration d'Émile Cartailhac, Jean-Baptiste Noulet et Eugène Trutat.
 En 1950, avec 19 salles accessibles au public, le Muséum est devenu un véritable pôle scientifique. Il s'est enrichi entre les deux guerres de nombreux dons : les collections d’ornithologie du Dr Victor Besaucèle (1847-1924), les collections d’ethnologie et de coquillages de Gaston de Roquemaurel (1804-1878) et la collection Dupuy en malacologie.
 En 1971, sous l’impulsion de Claudine Sudre, le Muséum se dote d’un service pédagogique et d'une bibliothèque enfantine.
 À cause de la découverte de faiblesses dans le bâtiment du muséum, les locaux sont fermés au public en 1997. En 1999, une nouvelle conception de l’établissement est proposée. Le site a été en chantier pendant plusieurs années et se réorganise en plusieurs lieux autour de Toulouse.
@@ -528,33 +580,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Le Muséum aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après dix années de fermeture, le muséum rouvre ses portes en décembre 2007 pour les groupes d'enfants constitués (scolaires et centres de loisirs de Toulouse) et le samedi 26 janvier 2008 pour tous[5]. C’est ainsi que la superficie du bâtiment est doublée (6 000 m2) en empiétant sur des terrains voisins. La surface dédiée aux expositions est de 3 000 m2 sur trois étages. Le jardin botanique de l’université Paul-Sabatier, d’une superficie de 5 500 m2, fait également partie de la réorganisation des lieux.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après dix années de fermeture, le muséum rouvre ses portes en décembre 2007 pour les groupes d'enfants constitués (scolaires et centres de loisirs de Toulouse) et le samedi 26 janvier 2008 pour tous. C’est ainsi que la superficie du bâtiment est doublée (6 000 m2) en empiétant sur des terrains voisins. La surface dédiée aux expositions est de 3 000 m2 sur trois étages. Le jardin botanique de l’université Paul-Sabatier, d’une superficie de 5 500 m2, fait également partie de la réorganisation des lieux.
 Le nouveau muséum est épaulé par une scénographie contemporaine, conçue et réalisée par l’architecte et scénographe Xavier Leroux-Cauche. Le projet qui a été élaboré par l’architecte Jean-Paul Viguier unifie d’un seul geste les trois composantes du programme d’exposition : partie historique, partie moderne et jardin botanique. La ville de Toulouse souhaite faire du muséum un outil d’éducation, de réflexion et de débat sur l’histoire naturelle, l’homme et l’environnement. Son comité scientifique, animé par le professeur Georges Larrouy, fait appel à d'éminents spécialistes français et européens des domaines abordés.
 Il s’agit d'une réinvention totale du muséum, aussi bien de son projet intellectuel que de son architecture physique. Centré sur le visiteur, le muséum fait le lien entre les savoirs scientifiques et son appropriation citoyenne. Il propose un itinéraire de prise de conscience des grandes questions de notre temps. Cette ambition oriente l’ensemble de ses expositions, de ses activités, et de ses animations. Le site web du muséum s’inscrit également dans ce sens : il est une vitrine du muséum mais aussi un « autre » lieu du muséum dans lequel les visites sur place peuvent être prolongées et enrichies, les débats et les échanges peuvent être poursuivis.
 Le muséum est membre du réseau national des collections naturalistes (RECOLNAT).
@@ -562,35 +616,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Organisation du muséum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Désormais, le muséum d'histoire naturelle devient le Muséum de Toulouse. Cette nouvelle appellation désigne l'ensemble des offres d'expositions et d'animations déployées sur trois sites géographiques[6]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Désormais, le muséum d'histoire naturelle devient le Muséum de Toulouse. Cette nouvelle appellation désigne l'ensemble des offres d'expositions et d'animations déployées sur trois sites géographiques:
 le site historique, intitulé le Muséum d'Histoire Naturelle, situé au cœur du Jardin des Plantes de Toulouse constitué :
-des bâtiments rénovés du muséum[7]
+des bâtiments rénovés du muséum
 Le Grand Carré (en accès libre) avec la Ketzal Boutik, le restaurant Le Moaï
 Les espaces d'expositions : Terre Active, Classer pour connaître, Ordre du vivant, Ruptures et continuum, Grandes Fonctions, Tableau d'interpellation.
 Le Mur des squelettes En ligne ici
@@ -601,7 +657,7 @@
 La bibliothèque Émile Cartailhac. Elle propose 3 000 ouvrages de vulgarisation en libre accès, 8 000 livres d'étude, 160 abonnements en cours à des revues de vulgarisation et de recherche. La bibliothèque participe au Plan de Conservation Partagée des périodiques mené par le Centre Régional des Lettres.
 La Médiathèque Jeunesse Pourquoi pas ? (pour les 3-14 ans). Elle propose sur place 2 000 ouvrages (documentaires, fictions et BD), 12 titres de périodiques, 4 postes multimédia, des activités en périodes scolaires et petites vacances.
 Le Service Bibliothèque et documentation du Muséum  est en ligne ici
-La photothèque conserve notamment des collections photographiques anciennes dont le fonds Eugène Trutat composé de 14 000 plaques de verre, tirages et négatifs papiers[8].
+La photothèque conserve notamment des collections photographiques anciennes dont le fonds Eugène Trutat composé de 14 000 plaques de verre, tirages et négatifs papiers.
 du jardin botanique Henri-Gaussen
 du Jardin des plantes
 			Le Grand Carré, L'éléphant et le Quetzalcoatlus. 
@@ -620,40 +676,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Collections</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dans cette section, on présente le contenu de chacune des différentes collections du Muséum de Toulouse.
-Expositions permanentes
-L'exposition permanente comprend cinq thèmes liés
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette section, on présente le contenu de chacune des différentes collections du Muséum de Toulouse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expositions permanentes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'exposition permanente comprend cinq thèmes liés
 Séquence 1 - Sentir la puissance de la Terre.
 Nature du système solaire et sa formation. Nature de la Terre - la tectonique des plaques, activité sismique et volcanique et l'érosion, la pétrologie et la minéralogie.
 Séquence 2 - Faire disparaître les notions de hiérarchie
 La nature de la vie - La biodiversité, classification et organisation.
-Le parcours de cette séquence met en avant le lien entre l'homme et les animaux à travers « L'arbre de la vie phylogénétique » et les différentes installations qui permettent de classer et d'organiser la diversité des espèces. Au début du parcours, sur la droite est proposée une introduction au vivant qui pose les bases de ce que le visiteur a besoin pour bien comprendre les prochaines animations de la séquence : Trier – Ranger – Classer – Reconnaître – Nommer[9].
+Le parcours de cette séquence met en avant le lien entre l'homme et les animaux à travers « L'arbre de la vie phylogénétique » et les différentes installations qui permettent de classer et d'organiser la diversité des espèces. Au début du parcours, sur la droite est proposée une introduction au vivant qui pose les bases de ce que le visiteur a besoin pour bien comprendre les prochaines animations de la séquence : Trier – Ranger – Classer – Reconnaître – Nommer.
 Séquence 3 - Se familiariser avec la grande échelle du temps.
 Histoire de la Terre de 3,8 milliards d'années. Introduit le temps, la paléontologie et l'évolution de la vie
 Séquence 4 - Admettre l'évidence
@@ -663,31 +756,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mauritia flexuosa – Fruit.  
@@ -698,31 +793,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ethnologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les collections d'ethnographie extra- européenne conservées au Muséum de Toulouse comptent 5 000 pièces provenant de quatre zones géographiques principales : Océanie, Afrique, Amérique et Asie.
 À l’instar d’autres collections françaises et européennes, la constitution du fonds ancien est fortement liée aux nombreuses missions d'explorations et d’expansion qui se sont multipliées au cours du XIXe siècle, ainsi qu’au passé colonial de la France, tandis que l’enrichissement des collections contemporaines fait l’objet de missions d’études et de collectes de terrain depuis quelques années.
@@ -736,7 +833,7 @@
 			Chapeau de berger Soudan français.
 			Bracelets de cheville. Culture Dan.
 			Porte sculptée. Madagascar.
-			Mohara Ody (Madagascar)collection Gustave Julien[10].
+			Mohara Ody (Madagascar)collection Gustave Julien.
 Le fonds américain est en pleine expansion avec les missions de collectes en cours depuis 2010 au Brésil Central auprès des populations amérindiennes (Karajà, culture xinguano…) et représente désormais un peu plus de 20 % des collections. Ce fonds comprend également parmi le fonds ancien un ensemble représentatif de céramiques précolombiennes, un petit ensemble d’Amérique du Nord, ainsi qu’une partie des objets collectés lors de la mission de Cessac.
 			Panier à couvercle "Warabahu", culture Karajà.
 			 Masque Apyãwa (Tapirape). 
@@ -745,31 +842,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Minéralogie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Célestine - Turkménistan.
@@ -781,34 +880,72 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Les spécimens de la collection de paléontologie se comptent en dizaines de milliers. On peut y trouver des fossiles allant de l'archéen à l'actuel. Leur taille varie de quelques millimètres à quelques mètres pour le Mégacéros par exemple. La collection comporte également un certain nombre de moulages dont certains peuvent mesurer jusqu'à dix mètres de long. Il existe plusieurs holotypes et paratypes.
-Invertébrés
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens de la collection de paléontologie se comptent en dizaines de milliers. On peut y trouver des fossiles allant de l'archéen à l'actuel. Leur taille varie de quelques millimètres à quelques mètres pour le Mégacéros par exemple. La collection comporte également un certain nombre de moulages dont certains peuvent mesurer jusqu'à dix mètres de long. Il existe plusieurs holotypes et paratypes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Invertébrés</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Une des plus anciennes formes de vie connues.
 			Pseudoasaphus Ordovicien. 
 			Ogygopsis canadense.
@@ -816,7 +953,43 @@
 			Marocaster coronatus.
 			Crioceratites emerici. 
 			Ampullaria Ponderosa.
-Vertébrés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vertébrés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Rhinocéros laineux squelette complet.
 			Rhinocéros laineux crâne.
 			Whiteia woodwardi.
@@ -824,31 +997,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Préhistoire</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Sépulture de Téviec - Mésolithique (6740-5680 avant le présent).
@@ -859,45 +1034,170 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entomologie
-Sur plusieurs centaines de milliers de spécimens, seuls 1200 sont exposés de façon permanente.
-Coléoptères
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Entomologie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur plusieurs centaines de milliers de spécimens, seuls 1200 sont exposés de façon permanente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Entomologie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Cerapterus pilipennis - Zambie.
 			Chrysochroa rajah thailandica - Chiang Mai, Thaïlande.
 			Hiperantha testacea Bupestre de Colombie. 
 			Metaxymorpha gloriosa  Bupestre du Nord-Queensland, Australie. 
-Lépidoptères
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Entomologie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Historis odius - Colombie. 
 			Charaxes varanes vologeses - Malawi. 
 			Morpho didius - Pérou.
 			Prepona licomedes - Brésil. 
-Orthoptères
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Entomologie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Orthoptères</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Oedipoda caerulescens - Etang de la Maourine Toulouse.
 			Titanacris Albipes - Guyane. 
 			Titanacris picticrus - Guyane. 
@@ -905,9 +1205,43 @@
 			Aeolacris caternaulti - Guyane. 
 			Prionolopha serrata.
 			Ommatoptera pictifolia.
-Wikimedia Commons présente d’autres illustrations sur les collections d'entomologie du Muséum.
-Ornithologie
-La collection d’ornithologie du MHNT s’élève à plus de 30 000 spécimens dont 20 000 œufs et près de 10 000 oiseaux, naturalisés (8 500) ou « mis en peau » (1 500) ; seuls 480 spécimens font partie de l'exposition permanente.
+Wikimedia Commons présente d’autres illustrations sur les collections d'entomologie du Muséum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ornithologie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>La collection d’ornithologie du MHNT s’élève à plus de 30 000 spécimens dont 20 000 œufs et près de 10 000 oiseaux, naturalisés (8 500) ou « mis en peau » (1 500) ; seuls 480 spécimens font partie de l'exposition permanente.
 Parmi les collections d’oiseaux naturalisés la collection Besaucèle avec ses 5 000 spécimens constitue une des collections historiques les plus importantes en Europe.
 			Harfang des neiges, la plus ancienne pièce naturalisée (1807).
 			Mainate à face jaune.
@@ -917,15 +1251,84 @@
 			Perdrix rouge.
 			Œufs de Prinia molleri.
 			Pétrel géant.
-Wikimedia Commons présente d’autres illustrations sur les collections d'ornithologie du Muséum.
-Ostéologie
+Wikimedia Commons présente d’autres illustrations sur les collections d'ornithologie du Muséum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ostéologie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Taupe d'Europe.
 			Avahi laineux.
 			Hurleur roux.
 			Babouin jaune.
-Wikimedia Commons présente d’autres illustrations sur les collections d'ostéologie du Muséum.
-Type
-Le Muséum de Toulouse est dépositaire de nombreux holotypes, en paléontologie, botanique et zoologie.
+Wikimedia Commons présente d’autres illustrations sur les collections d'ostéologie du Muséum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Muséum de Toulouse est dépositaire de nombreux holotypes, en paléontologie, botanique et zoologie.
 			Marocaster coronatus Holotype.
 			Furca mauritanica Holotype.
 			Cadurcotherium nouleti Paratype.
@@ -933,34 +1336,39 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Photographie</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fonds photographique Eugène Trutat
-Le fonds Trutat se compose de plus de 20 000 plaques de verre dont plus de 14 000 sont conservées à la photothèque du Muséum. Eugène Trutat (né Charles Louis Eugène Trutat le 25 août 1840 à Vernon, Eure, France et mort le 6 août 1910 à Foix, Ariège, France) est un photographe, pyrénéiste, géologue et naturaliste français. Il fut directeur du Muséum d’histoire naturelle de Toulouse.
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fonds photographique Eugène Trutat</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fonds Trutat se compose de plus de 20 000 plaques de verre dont plus de 14 000 sont conservées à la photothèque du Muséum. Eugène Trutat (né Charles Louis Eugène Trutat le 25 août 1840 à Vernon, Eure, France et mort le 6 août 1910 à Foix, Ariège, France) est un photographe, pyrénéiste, géologue et naturaliste français. Il fut directeur du Muséum d’histoire naturelle de Toulouse.
 			Eugène Trutat par Nadar.
 			Portraits anthropologiques.
 			Nouvelle-Calédonie, casse-tête disques.
@@ -970,104 +1378,147 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Entretien et rénovation des collections</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Le muséum emploie de nombreuses équipes techniques pour l'entretien des pièces, notamment un grand laboratoire de préparation, pour la taxidermie, qui sert également pour le dégagement et l’entretien des pièces de paléontologie et de minéralogie.
-Un éléphant d'Asie du Muséum d'histoire naturelle a été rénové pour la réouverture du muséum. Cet éléphant, nommé Punch, a été donné le 11 décembre 1907 par le cirque Pinder. Il était une attraction phare de l'établissement. Il fut naturalisé par Philippe Lacomme qui inventa une procédure de naturalisation qui fait encore de nos jours référence. Elle consiste à réaliser un bâti, garni de liège, qui dessine le contour de l’éléphant. Le tout est démontable en douze pièces. Ensuite la peau de l’animal est placée sur ce bâti une fois remonté dans l’exposition, à l’endroit où le public pourra le découvrir. L'éléphant est actuellement exposé de nouveau dans le hall du muséum[11].</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+Un éléphant d'Asie du Muséum d'histoire naturelle a été rénové pour la réouverture du muséum. Cet éléphant, nommé Punch, a été donné le 11 décembre 1907 par le cirque Pinder. Il était une attraction phare de l'établissement. Il fut naturalisé par Philippe Lacomme qui inventa une procédure de naturalisation qui fait encore de nos jours référence. Elle consiste à réaliser un bâti, garni de liège, qui dessine le contour de l’éléphant. Le tout est démontable en douze pièces. Ensuite la peau de l’animal est placée sur ce bâti une fois remonté dans l’exposition, à l’endroit où le public pourra le découvrir. L'éléphant est actuellement exposé de nouveau dans le hall du muséum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des directeurs et conservateurs du muséum
-Philippe-Isidore Picot de Lapeyrouse (1744-1818) qui est à l'origine des premières collections (herbiers, minéraux et fossiles) du muséum.
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Liste des directeurs et conservateurs du muséum</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Philippe-Isidore Picot de Lapeyrouse (1744-1818) qui est à l'origine des premières collections (herbiers, minéraux et fossiles) du muséum.
 1865-1872 : Édouard Filhol (1814-1883), premier directeur du Muséum et maire de Toulouse de 1867 à 1870 ;
 1872-1890 : Jean-Baptiste Noulet (1802-1890), directeur du Muséum, préhistorien.
-1873-1876 : Émile Cartailhac, conservateur-adjoint ; membre de la commission de direction à partir de 1901[12].
-1890-1900[12] : Eugène Trutat (1840-1910), premier conservateur (1865-1890), directeur du Muséum, naturaliste et photographe.
+1873-1876 : Émile Cartailhac, conservateur-adjoint ; membre de la commission de direction à partir de 1901.
+1890-1900 : Eugène Trutat (1840-1910), premier conservateur (1865-1890), directeur du Muséum, naturaliste et photographe.
 1901-1907 : régime de la Commission technique.
-1908-1921 : Émile Cartailhac,conservateur[12].
+1908-1921 : Émile Cartailhac,conservateur.
 1922-1956 : Henri Bégouën, conservateur.
-1944-1962 : Gaston Astre (1896-1975), naturaliste géologue, paléontologue et malacologue, directeur[13].
+1944-1962 : Gaston Astre (1896-1975), naturaliste géologue, paléontologue et malacologue, directeur.
 1962-2000 : Claudine Sudre (1934-2009), conservatrice en chef et directrice.
 2000-2010 : Jean-François Lapeyre (1946-2010), directeur.
-1er janvier 2011- : Francis Duranthon (1961-), conservateur en chef et directeur.
-Présence du latin au muséum
-La visite du muséum se prête également à une exploration du vocabulaire scientifique au moyen du latin[14]. En effet, à côté de son nom usuel, chaque espèce est désignée par deux mots latins, ou latinisés. Ils sont écrits en italique : le premier mot désignant le genre porte une majuscule, le second, spécifique à l’espèce donne des précisions. Pour illustrer ce que signifie le terme « nommer », le Muséum propose ainsi une représentation de l'Asphodèle ramifié entourée des noms vernaculaires ainsi que de son nom scientifique en latin : Asphodelus ramosus. De la même façon, le pigeon ramier (Columba palumbus) est confronté au pigeon des villes (Columba livia)
+1er janvier 2011- : Francis Duranthon (1961-), conservateur en chef et directeur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Muséum_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Présence du latin au muséum</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La visite du muséum se prête également à une exploration du vocabulaire scientifique au moyen du latin. En effet, à côté de son nom usuel, chaque espèce est désignée par deux mots latins, ou latinisés. Ils sont écrits en italique : le premier mot désignant le genre porte une majuscule, le second, spécifique à l’espèce donne des précisions. Pour illustrer ce que signifie le terme « nommer », le Muséum propose ainsi une représentation de l'Asphodèle ramifié entourée des noms vernaculaires ainsi que de son nom scientifique en latin : Asphodelus ramosus. De la même façon, le pigeon ramier (Columba palumbus) est confronté au pigeon des villes (Columba livia)
 À proximité se trouve un jeu comportant trois rouleaux qui permet d'associer une image, une définition et une étymologie: par exemple le nom quadrumane est expliqué par son étymologie latine : quatuor, quatre et manus, main.
 Un peu plus loin, l'exemple du lion permet de présenter l'espèce en douze propositions, du plus général au plus particulier : chaque caractère se fonde sur un mot savant, immédiatement expliqué. Par exemple, le terme « carnivore » est précisé par « je me nourris de viande » en raison du radical carn-, issu du latin caro, carnis et du radical vorare, dévorer. De même, « je suis un félidé » est suivi de « mes griffes sont rétractiles comme chez tous les chats » en accord avec le latin feles, is, le chat.
 </t>
